--- a/admin/Examiners_List.xlsx
+++ b/admin/Examiners_List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>Shewe Yefetene</t>
@@ -439,8 +442,12 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
       <c r="G2">
         <v>912121212</v>
       </c>
@@ -450,16 +457,20 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
       <c r="G3">
         <v>912121212</v>
       </c>
@@ -469,16 +480,20 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
       <c r="G4">
         <v>912121212</v>
       </c>

--- a/admin/Examiners_List.xlsx
+++ b/admin/Examiners_List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -47,13 +47,19 @@
     <t>M</t>
   </si>
   <si>
+    <t>Civil Engineering</t>
+  </si>
+  <si>
+    <t>Unity University College</t>
+  </si>
+  <si>
+    <t>Shewe Yefetene</t>
+  </si>
+  <si>
+    <t>assefayohannes123@gmail.com</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Shewe Yefetene</t>
-  </si>
-  <si>
-    <t>assefayohannes123@gmail.com</t>
   </si>
   <si>
     <t>Shewe seks</t>
@@ -446,7 +452,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>912121212</v>
@@ -457,10 +463,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -469,7 +475,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>912121212</v>
@@ -480,10 +486,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -492,7 +498,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>912121212</v>
